--- a/TD.xlsx
+++ b/TD.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>jeudi</t>
+    <t>lundi</t>
   </si>
   <si>
     <t>TCP/IP (KINX6AB2)</t>
@@ -32,7 +32,7 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>7:45</t>
@@ -107,7 +107,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44994.0</v>
+        <v>46090.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -136,7 +136,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>6</v>
@@ -173,7 +173,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>45001.0</v>
+        <v>46097.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>1</v>
@@ -210,7 +210,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>45057.0</v>
+        <v>46153.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>1</v>
